--- a/faltas/src/programa/faltas-de-material.xlsx
+++ b/faltas/src/programa/faltas-de-material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Número de Proyecto</t>
   </si>
@@ -32,7 +32,28 @@
     <t>240058_01_01</t>
   </si>
   <si>
-    <t>SE.M9P22606</t>
+    <t>SI.6s71234421</t>
+  </si>
+  <si>
+    <t>envolvente</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>puerta</t>
+  </si>
+  <si>
+    <t>250008_01_01</t>
+  </si>
+  <si>
+    <t>cumple danny</t>
+  </si>
+  <si>
+    <t>240022_01_01</t>
+  </si>
+  <si>
+    <t>SE.M9p22607</t>
   </si>
   <si>
     <t>placa</t>
@@ -375,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,10 +426,66 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
